--- a/SMDA/Lab 3 odd 2022.xlsx
+++ b/SMDA/Lab 3 odd 2022.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanindra Saini\Desktop\fansan\sem3\SMDA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AA65B-CEA6-4843-8841-EA07454D842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Q1." sheetId="6" r:id="rId1"/>
     <sheet name="Q2." sheetId="1" r:id="rId2"/>
     <sheet name="Q3." sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
   <si>
     <t>Georgia</t>
   </si>
@@ -445,9 +441,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>kp-skewness</t>
-  </si>
-  <si>
     <t>bw_skewness</t>
   </si>
   <si>
@@ -478,14 +471,17 @@
     <t>percentiles kurtosis</t>
   </si>
   <si>
-    <t>QD</t>
+    <t>qd</t>
+  </si>
+  <si>
+    <t>kp-skewness=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,7 +628,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,13 +816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1060,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,14 +1094,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,6 +1112,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1159,8 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1169,6 +1178,2810 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3129847163082096E-2"/>
+          <c:y val="0.11761492567379417"/>
+          <c:w val="0.87827963788089902"/>
+          <c:h val="0.7117728681206047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Snowfall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="88878464"/>
+        <c:axId val="88892928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88878464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Average Snowfall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46246153332977008"/>
+              <c:y val="0.88627398745815444"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88892928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88892928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Average Low Temperatur</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.184628757141855E-2"/>
+              <c:y val="0.3072438587392145"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88878464"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smartphone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other Cell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$69:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Cell Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$69:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="50605440"/>
+        <c:axId val="87626880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50605440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Group</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87626880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87626880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Owneership</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50605440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3129847163082027E-2"/>
+          <c:y val="0.11761492567379417"/>
+          <c:w val="0.87827963788089847"/>
+          <c:h val="0.71177286812060458"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Snowfall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="104053760"/>
+        <c:axId val="104051072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="104053760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104051072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="104051072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104053760"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smartphone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other Cell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$69:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Cell Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$69:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="50578944"/>
+        <c:axId val="50616960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50578944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Group</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50616960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50616960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Owneership</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50578944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05646</cdr:x>
+      <cdr:y>0.70203</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17691</cdr:x>
+      <cdr:y>0.91874</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="428625" y="2962275"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,7 +4027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1246,27 +4059,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1298,24 +4093,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1491,25 +4268,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="10"/>
-    <col min="3" max="3" width="15.8984375" style="10" customWidth="1"/>
-    <col min="4" max="7" width="8.69921875" style="10"/>
-    <col min="8" max="8" width="10.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="10"/>
+    <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="10"/>
+    <col min="3" max="3" width="15.875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="10"/>
+    <col min="6" max="6" width="12.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="10"/>
+    <col min="8" max="8" width="10.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>110</v>
       </c>
@@ -1517,22 +4296,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="B2" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="B3" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="B4" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="11" t="s">
         <v>115</v>
       </c>
@@ -1558,7 +4337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="B7" s="11" t="s">
         <v>123</v>
       </c>
@@ -1584,7 +4363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="C10" s="13" t="s">
         <v>124</v>
       </c>
@@ -1600,17 +4379,17 @@
       <c r="G10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="20" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="C11" s="13">
         <v>10</v>
       </c>
@@ -1627,7 +4406,7 @@
         <f>(C11+D11)/2</f>
         <v>15</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="20">
         <f>F11*G11</f>
         <v>270</v>
       </c>
@@ -1635,12 +4414,12 @@
         <f>G11*G11*F11</f>
         <v>4050</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="21">
         <f>F11</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="C12" s="13">
         <f>C11+10</f>
         <v>20</v>
@@ -1659,7 +4438,7 @@
         <f t="shared" ref="G12:G17" si="0">(C12+D12)/2</f>
         <v>25</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="20">
         <f t="shared" ref="H12:H17" si="1">F12*G12</f>
         <v>750</v>
       </c>
@@ -1667,12 +4446,12 @@
         <f t="shared" ref="I12:I17" si="2">G12*G12*F12</f>
         <v>18750</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="26">
         <f t="shared" ref="J12:J17" si="3">F12+J11</f>
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="C13" s="13">
         <f t="shared" ref="C13:C16" si="4">C12+10</f>
         <v>30</v>
@@ -1691,7 +4470,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="20">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
@@ -1699,12 +4478,12 @@
         <f t="shared" si="2"/>
         <v>49000</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="25">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="C14" s="13">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -1723,7 +4502,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="20">
         <f t="shared" si="1"/>
         <v>2475</v>
       </c>
@@ -1731,12 +4510,12 @@
         <f t="shared" si="2"/>
         <v>111375</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="22">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="C15" s="13">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -1755,7 +4534,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="20">
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
@@ -1763,12 +4542,12 @@
         <f t="shared" si="2"/>
         <v>114950</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="25">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="C16" s="13">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -1787,7 +4566,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="20">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
@@ -1795,12 +4574,12 @@
         <f t="shared" si="2"/>
         <v>84500</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="26">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10">
       <c r="C17" s="13">
         <f>C16+10</f>
         <v>70</v>
@@ -1812,14 +4591,14 @@
       <c r="E17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="23">
         <v>16</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="24">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
@@ -1827,12 +4606,12 @@
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="21">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10">
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1850,23 +4629,15 @@
         <v>472625</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10">
       <c r="C21" s="14" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="14">
-        <f>(D17-C11)/7</f>
         <v>10</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="14">
-        <f>(I18-((H18)^2/F18))/F18</f>
-        <v>267.45949160101077</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:10">
       <c r="C22" s="14" t="s">
         <v>131</v>
       </c>
@@ -1874,15 +4645,8 @@
         <f>H18/F18</f>
         <v>43.70967741935484</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="14">
-        <f>SQRT(F21)</f>
-        <v>16.354188809018037</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23" s="14" t="s">
         <v>134</v>
       </c>
@@ -1891,7 +4655,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10">
       <c r="C24" s="14" t="s">
         <v>132</v>
       </c>
@@ -1900,105 +4664,130 @@
         <v>43.727272727272727</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="15">
-        <f>3*(D22-D24)/F22</f>
+    <row r="25" spans="3:10">
+      <c r="C25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="14">
+        <f>(I18-((H18)^2/F18))/F18</f>
+        <v>267.45949160101077</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SQRT(D25)</f>
+        <v>16.354188809018037</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="15">
+        <f>3*(D22-D24)/D26</f>
         <v>-3.2276699486649602E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="14" t="s">
-        <v>141</v>
+    <row r="30" spans="3:10">
+      <c r="C30" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="D30" s="14">
         <f>F18/4</f>
         <v>54.25</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="E30" s="18"/>
+      <c r="F30" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="14">
+        <f>C13+(D30-J12)*D21/F13</f>
+        <v>31.5625</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="14">
         <f>3*F18/4</f>
         <v>162.75</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="14" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="14">
-        <f>C13+(D30-J12)*D21/F13</f>
-        <v>31.5625</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="14">
-        <f>C15+(F30-J14)*D21/F15</f>
+      <c r="G31" s="14">
+        <f>C15+(D31-J14)*D21/F15</f>
         <v>55.19736842105263</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="15">
-        <f>(F31+D31-2*D24)/(F31-D31)</f>
+    <row r="32" spans="3:10">
+      <c r="C32" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="16">
+        <f>(G31+G30-2*D24)/(G31-G30)</f>
         <v>-2.9392041500601009E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8">
       <c r="C36" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="14">
         <f>10*F18/100</f>
         <v>21.7</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="14">
+      <c r="E36" s="18"/>
+      <c r="F36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="14">
+        <f>C12+(D36-J11)*D21/F12</f>
+        <v>21.233333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="14">
         <f>90*F18/100</f>
         <v>195.3</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="14">
-        <f>C12+(D36-J11)*D21/F12</f>
-        <v>21.233333333333334</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="14">
+        <f>C16+(D37-J15)*D21/F16</f>
+        <v>67.150000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="14">
+        <f>(G31-G30)/2</f>
+        <v>11.817434210526315</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="14">
-        <f>C16+(F36-J15)*D21/F16</f>
-        <v>67.150000000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="14">
-        <f>(F31-D31)/2</f>
-        <v>11.817434210526315</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="15">
-        <f>D38/(F37-D37)</f>
+      <c r="D39" s="16">
+        <f>D38/(G37-G36)</f>
         <v>0.25736698825102677</v>
       </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="H40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2010,23 +4799,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -2034,17 +4823,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
@@ -2061,7 +4850,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -2075,7 +4864,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -2092,7 +4881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +4898,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +4915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -2143,7 +4932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -2157,7 +4946,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -2171,7 +4960,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +4974,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -2199,7 +4988,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2213,7 +5002,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -2227,7 +5016,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -2241,7 +5030,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -2255,7 +5044,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2269,7 +5058,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -2283,7 +5072,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2297,7 +5086,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -2311,7 +5100,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -2325,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -2339,7 +5128,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -2353,7 +5142,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -2367,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -2381,7 +5170,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +5184,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>48</v>
       </c>
@@ -2409,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +5212,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -2437,7 +5226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>51</v>
       </c>
@@ -2451,7 +5240,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>52</v>
       </c>
@@ -2465,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>19</v>
       </c>
@@ -2479,7 +5268,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>54</v>
       </c>
@@ -2493,7 +5282,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -2507,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>57</v>
       </c>
@@ -2521,7 +5310,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>59</v>
       </c>
@@ -2535,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>61</v>
       </c>
@@ -2549,7 +5338,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>62</v>
       </c>
@@ -2563,7 +5352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>64</v>
       </c>
@@ -2577,7 +5366,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
         <v>66</v>
       </c>
@@ -2591,7 +5380,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>67</v>
       </c>
@@ -2605,7 +5394,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>69</v>
       </c>
@@ -2619,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
         <v>70</v>
       </c>
@@ -2633,7 +5422,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
         <v>71</v>
       </c>
@@ -2647,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5">
       <c r="B47" t="s">
         <v>72</v>
       </c>
@@ -2661,7 +5450,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5">
       <c r="B48" t="s">
         <v>73</v>
       </c>
@@ -2675,7 +5464,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>74</v>
       </c>
@@ -2689,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>75</v>
       </c>
@@ -2703,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>76</v>
       </c>
@@ -2717,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5">
       <c r="B52" t="s">
         <v>77</v>
       </c>
@@ -2731,7 +5520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>79</v>
       </c>
@@ -2745,7 +5534,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -2759,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>81</v>
       </c>
@@ -2773,7 +5562,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
         <v>78</v>
       </c>
@@ -2789,34 +5578,37 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="6"/>
-    <col min="3" max="3" width="13.09765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" style="6"/>
-    <col min="8" max="8" width="10.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="6"/>
+    <col min="3" max="3" width="13.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="6"/>
+    <col min="8" max="8" width="10.75" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.19921875" style="6"/>
-    <col min="13" max="14" width="10.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.19921875" style="6"/>
+    <col min="10" max="10" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.25" style="6"/>
+    <col min="13" max="14" width="10.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.25" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
         <v>103</v>
       </c>
@@ -2824,12 +5616,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="B2" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="5" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>93</v>
       </c>
@@ -2846,7 +5638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="B5" s="6" t="s">
         <v>97</v>
       </c>
@@ -2863,7 +5655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="B6" s="6" t="s">
         <v>98</v>
       </c>
@@ -2880,7 +5672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="B7" s="6" t="s">
         <v>99</v>
       </c>
@@ -2903,7 +5695,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="B8" s="6" t="s">
         <v>100</v>
       </c>
@@ -2923,7 +5715,7 @@
       <c r="J8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="B9" s="6" t="s">
         <v>101</v>
       </c>
@@ -2940,7 +5732,7 @@
       <c r="J9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
@@ -2957,61 +5749,61 @@
       <c r="J10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:16">
       <c r="G17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:16">
       <c r="G18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:16">
       <c r="G19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:16">
       <c r="G20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:16">
       <c r="G21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:16">
       <c r="G22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:16">
       <c r="G23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="8"/>
@@ -3020,5 +5812,648 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="str">
+        <f>Q2.!D5</f>
+        <v>Average Low temp</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>Q2.!E5</f>
+        <v>Average Snowfall</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <f>Q2.!D6</f>
+        <v>53</v>
+      </c>
+      <c r="B2" s="1">
+        <f>Q2.!E6</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <f>Q2.!D7</f>
+        <v>59</v>
+      </c>
+      <c r="B3" s="1">
+        <f>Q2.!E7</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <f>Q2.!D8</f>
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <f>Q2.!E8</f>
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <f>Q2.!D9</f>
+        <v>53</v>
+      </c>
+      <c r="B5" s="1">
+        <f>Q2.!E9</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <f>Q2.!D10</f>
+        <v>44</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Q2.!E10</f>
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <f>Q2.!D11</f>
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Q2.!E11</f>
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <f>Q2.!D12</f>
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <f>Q2.!E12</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <f>Q2.!D13</f>
+        <v>41</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Q2.!E13</f>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <f>Q2.!D14</f>
+        <v>43</v>
+      </c>
+      <c r="B10" s="1">
+        <f>Q2.!E14</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <f>Q2.!D15</f>
+        <v>43</v>
+      </c>
+      <c r="B11" s="1">
+        <f>Q2.!E15</f>
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <f>Q2.!D16</f>
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
+        <f>Q2.!E16</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <f>Q2.!D17</f>
+        <v>57</v>
+      </c>
+      <c r="B13" s="1">
+        <f>Q2.!E17</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <f>Q2.!D18</f>
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Q2.!E18</f>
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <f>Q2.!D19</f>
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <f>Q2.!E19</f>
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <f>Q2.!D20</f>
+        <v>40</v>
+      </c>
+      <c r="B16" s="1">
+        <f>Q2.!E20</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <f>Q2.!D21</f>
+        <v>60</v>
+      </c>
+      <c r="B17" s="1">
+        <f>Q2.!E21</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <f>Q2.!D22</f>
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <f>Q2.!E22</f>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <f>Q2.!D23</f>
+        <v>58</v>
+      </c>
+      <c r="B19" s="1">
+        <f>Q2.!E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <f>Q2.!D24</f>
+        <v>48</v>
+      </c>
+      <c r="B20" s="1">
+        <f>Q2.!E24</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <f>Q2.!D25</f>
+        <v>59</v>
+      </c>
+      <c r="B21" s="1">
+        <f>Q2.!E25</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <f>Q2.!D26</f>
+        <v>56</v>
+      </c>
+      <c r="B22" s="1">
+        <f>Q2.!E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <f>Q2.!D27</f>
+        <v>49</v>
+      </c>
+      <c r="B23" s="1">
+        <f>Q2.!E27</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <f>Q2.!D28</f>
+        <v>54</v>
+      </c>
+      <c r="B24" s="1">
+        <f>Q2.!E28</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <f>Q2.!D29</f>
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <f>Q2.!E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <f>Q2.!D30</f>
+        <v>40</v>
+      </c>
+      <c r="B26" s="1">
+        <f>Q2.!E30</f>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <f>Q2.!D31</f>
+        <v>37</v>
+      </c>
+      <c r="B27" s="1">
+        <f>Q2.!E31</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <f>Q2.!D32</f>
+        <v>49</v>
+      </c>
+      <c r="B28" s="1">
+        <f>Q2.!E32</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <f>Q2.!D33</f>
+        <v>61</v>
+      </c>
+      <c r="B29" s="1">
+        <f>Q2.!E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <f>Q2.!D34</f>
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <f>Q2.!E34</f>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <f>Q2.!D35</f>
+        <v>51</v>
+      </c>
+      <c r="B31" s="1">
+        <f>Q2.!E35</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <f>Q2.!D36</f>
+        <v>63</v>
+      </c>
+      <c r="B32" s="1">
+        <f>Q2.!E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <f>Q2.!D37</f>
+        <v>47</v>
+      </c>
+      <c r="B33" s="1">
+        <f>Q2.!E37</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <f>Q2.!D38</f>
+        <v>63</v>
+      </c>
+      <c r="B34" s="1">
+        <f>Q2.!E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <f>Q2.!D39</f>
+        <v>42</v>
+      </c>
+      <c r="B35" s="1">
+        <f>Q2.!E39</f>
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <f>Q2.!D40</f>
+        <v>45</v>
+      </c>
+      <c r="B36" s="1">
+        <f>Q2.!E40</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <f>Q2.!D41</f>
+        <v>43</v>
+      </c>
+      <c r="B37" s="1">
+        <f>Q2.!E41</f>
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <f>Q2.!D42</f>
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <f>Q2.!E42</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <f>Q2.!D43</f>
+        <v>48</v>
+      </c>
+      <c r="B39" s="1">
+        <f>Q2.!E43</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <f>Q2.!D44</f>
+        <v>53</v>
+      </c>
+      <c r="B40" s="1">
+        <f>Q2.!E44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <f>Q2.!D45</f>
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <f>Q2.!E45</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <f>Q2.!D46</f>
+        <v>48</v>
+      </c>
+      <c r="B42" s="1">
+        <f>Q2.!E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <f>Q2.!D47</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <f>Q2.!E47</f>
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <f>Q2.!D48</f>
+        <v>59</v>
+      </c>
+      <c r="B44" s="1">
+        <f>Q2.!E48</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <f>Q2.!D49</f>
+        <v>58</v>
+      </c>
+      <c r="B45" s="1">
+        <f>Q2.!E49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <f>Q2.!D50</f>
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <f>Q2.!E50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <f>Q2.!D51</f>
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <f>Q2.!E51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <f>Q2.!D52</f>
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <f>Q2.!E52</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <f>Q2.!D53</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <f>Q2.!E53</f>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <f>Q2.!D54</f>
+        <v>65</v>
+      </c>
+      <c r="B50" s="1">
+        <f>Q2.!E54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <f>Q2.!D55</f>
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <f>Q2.!E55</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <f>Q2.!D56</f>
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <f>Q2.!E56</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="str">
+        <f>Q3.!B4</f>
+        <v>Age</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f>Q3.!C4</f>
+        <v>Smartphone</v>
+      </c>
+      <c r="C68" s="5" t="str">
+        <f>Q3.!D4</f>
+        <v>Other Cell</v>
+      </c>
+      <c r="D68" s="5" t="str">
+        <f>Q3.!E4</f>
+        <v>No Cell Phone</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D70" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>